--- a/excel_templates/zonewtbreaktemplate.xlsx
+++ b/excel_templates/zonewtbreaktemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F588BA9-B271-4719-9454-55F728576897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D411F7-148B-4C03-8CA9-895CD92811CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="705">
   <si>
     <t>A</t>
   </si>
@@ -2145,6 +2145,12 @@
   </si>
   <si>
     <t>PMEI</t>
+  </si>
+  <si>
+    <t>Effective 1/22/2023</t>
+  </si>
+  <si>
+    <t>Note: See Individual Country Listings on Zone List tab for additional information.</t>
   </si>
 </sst>
 </file>
@@ -2154,7 +2160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2288,6 +2294,14 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2503,7 +2517,7 @@
       <protection hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2679,6 +2693,13 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3091,7 +3112,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8:P8"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3197,22 +3218,30 @@
     <row r="78" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="79" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="80" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="82" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="83" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="49" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="50" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:1" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="97" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="98" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="99" s="22" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -5725,7 +5754,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B36" sqref="B36"/>
       <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
